--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/ELAND_01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="771" documentId="13_ncr:1_{20793258-A91E-4FC4-9A47-1D0DDB129A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1736A4A6-9483-44C0-8EF6-9832447479AD}"/>
   <bookViews>
-    <workbookView xWindow="11616" yWindow="2244" windowWidth="34320" windowHeight="15288" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="8085" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
     <sheet name="Demand" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,13 +42,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{883F3F3E-52AC-4182-99FF-FF97F19B73F8}">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{AA7AB276-025A-44A9-9D78-5D089C2FB040}">
+    <comment ref="I6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{AC852C4D-62E1-46B7-93E3-1A53D5349DED}">
+    <comment ref="J6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="1" shapeId="0" xr:uid="{FF9B4920-14A3-4070-A1B2-78FA5C2510AD}">
+    <comment ref="K6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,13 +240,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{54990CEA-F4F0-45D9-9B03-80195AEAE8E9}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{69DE8243-941B-4A16-98FE-3695051F9DBF}">
+    <comment ref="J6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{A681C4EF-DB98-4ADB-A493-4D0D67EDAB80}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,12 +434,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DC8F15DD-018B-4855-85AF-04500F13F7B0}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -479,12 +478,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{6E49767A-F5CB-4932-B130-15226B45B1B0}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="176">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1033,12 +1032,30 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>EX_PP_COAL</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>Hard Coal</t>
+  </si>
+  <si>
+    <t>MIN_COAL</t>
+  </si>
+  <si>
+    <t>Domestic mining of hard coal</t>
+  </si>
+  <si>
+    <t>Power Pland - Coal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
@@ -1724,7 +1741,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1902,59 +1919,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
-    <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 39 2 2" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="2"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2069,7 +2087,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2280,7 +2298,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3069,44 +3087,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4117804-2E85-47EE-BA5B-568C5E98E06A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -3114,7 +3132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -3149,7 +3167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -3183,7 +3201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -3223,7 +3241,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -3255,7 +3273,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -3278,7 +3296,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -3310,7 +3328,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>102</v>
       </c>
@@ -3324,16 +3342,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14610B-F5EC-4107-A8FB-0F277B7332F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
@@ -3345,14 +3363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3360,30 +3378,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3396,8 +3414,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3410,7 +3428,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54" t="s">
         <v>1</v>
@@ -3425,7 +3443,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="57" t="s">
         <v>137</v>
@@ -3456,7 +3474,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="59" t="s">
         <v>9</v>
@@ -3487,7 +3505,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="47" t="s">
         <v>15</v>
@@ -3510,7 +3528,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="49" t="s">
         <v>15</v>
@@ -3533,7 +3551,7 @@
       <c r="K9" s="50"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="61" t="s">
         <v>15</v>
@@ -3558,89 +3576,112 @@
       </c>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="101" t="s">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="111" t="s">
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D16" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="113"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="105" t="s">
+      <c r="E16" s="112"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D17" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="106"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="107" t="s">
+      <c r="E17" s="109"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D18" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="108"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="105" t="s">
+      <c r="E18" s="108"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D19" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="106"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="107" t="s">
+      <c r="E19" s="109"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D20" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="108"/>
-    </row>
-    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="109" t="s">
+      <c r="E20" s="108"/>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D21" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="110"/>
+      <c r="E21" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3648,33 +3689,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -3687,7 +3728,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="38" t="s">
         <v>21</v>
@@ -3702,7 +3743,7 @@
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="41" t="s">
         <v>22</v>
@@ -3733,7 +3774,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="43" t="s">
         <v>31</v>
@@ -3764,7 +3805,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="45" t="s">
         <v>67</v>
@@ -3779,7 +3820,7 @@
       <c r="K8" s="46"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="47" t="s">
         <v>61</v>
@@ -3802,7 +3843,7 @@
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
       <c r="C10" s="49" t="s">
         <v>40</v>
@@ -3827,198 +3868,251 @@
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29"/>
-      <c r="C13" s="51" t="s">
+      <c r="J13" s="21"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F14" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G14" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H14" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="101" t="s">
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30"/>
+    </row>
+    <row r="19" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D20" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="104"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="114" t="s">
+      <c r="E20" s="115"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D21" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="115"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="107" t="s">
+      <c r="E21" s="118"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D22" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="116"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="105" t="s">
+      <c r="E22" s="116"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D23" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="117"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="107" t="s">
+      <c r="E23" s="117"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D24" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="116"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="105" t="s">
+      <c r="E24" s="116"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D25" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="117"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="107" t="s">
+      <c r="E25" s="117"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D26" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="116"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="105" t="s">
+      <c r="E26" s="116"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D27" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="117"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="107" t="s">
+      <c r="E27" s="117"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D28" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="116"/>
-    </row>
-    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="109" t="s">
+      <c r="E28" s="116"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D29" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="118"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
+      <c r="E29" s="113"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4026,34 +4120,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
-  <dimension ref="B2:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
@@ -4062,7 +4156,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4073,7 +4167,7 @@
       <c r="G5" s="56"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>24</v>
@@ -4092,7 +4186,7 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>45</v>
@@ -4111,7 +4205,7 @@
       </c>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="70" t="s">
         <v>52</v>
@@ -4126,7 +4220,7 @@
       </c>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E9</f>
@@ -4146,7 +4240,7 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="74" t="str">
         <f>FI_Process!E10</f>
@@ -4166,14 +4260,34 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="75" t="str">
+        <f>FI_Process!E11</f>
+        <v>MIN_COAL</v>
+      </c>
+      <c r="D11" s="75" t="str">
+        <f>FI_Process!F11</f>
+        <v>Domestic mining of hard coal</v>
+      </c>
+      <c r="E11" s="75" t="str">
+        <f>FI_Comm!E11</f>
+        <v>COAL</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75">
+        <v>11</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4183,33 +4297,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="15" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="15" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>118</v>
       </c>
@@ -4217,10 +4331,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
@@ -4234,7 +4348,7 @@
       <c r="L4" s="37"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4250,7 +4364,7 @@
       <c r="L5" s="56"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>24</v>
@@ -4287,7 +4401,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>45</v>
@@ -4327,7 +4441,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="80" t="s">
         <v>52</v>
@@ -4361,14 +4475,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
-        <f>FI_Process!E12</f>
+        <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>FI_Process!F12</f>
+        <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -4407,14 +4521,14 @@
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="74" t="str">
-        <f>FI_Process!E13</f>
+        <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
       <c r="D10" s="75" t="str">
-        <f>FI_Process!F13</f>
+        <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
       <c r="E10" s="75" t="str">
@@ -4453,51 +4567,90 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="O11" s="100">
+    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="75" t="str">
+        <f>FI_Process!E15</f>
+        <v>EX_PP_COAL</v>
+      </c>
+      <c r="D11" s="75" t="str">
+        <f>FI_Process!F15</f>
+        <v>Power Pland - Coal</v>
+      </c>
+      <c r="E11" s="75" t="str">
+        <f>FI_Comm!E11</f>
+        <v>COAL</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="75">
+        <v>2</v>
+      </c>
+      <c r="H11" s="75">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I11" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="75">
+        <v>1</v>
+      </c>
+      <c r="L11" s="76">
+        <v>1</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="O12" s="99">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4506,38 +4659,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
       <c r="E4" s="79"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="90" t="s">
         <v>43</v>
@@ -4546,7 +4699,7 @@
       <c r="E5" s="91"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="88" t="s">
         <v>2</v>
@@ -4559,7 +4712,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="92" t="s">
         <v>121</v>
@@ -4572,7 +4725,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="95" t="s">
         <v>52</v>
@@ -4583,7 +4736,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="82" t="str">
         <f>FI_Comm!E10</f>
@@ -4597,7 +4750,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -4610,12 +4763,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4814,20 +4969,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4852,12 +5014,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Supply" sheetId="3" r:id="rId6"/>
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
     <sheet name="Demand" sheetId="9" r:id="rId8"/>
+    <sheet name="GRID" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -521,8 +522,52 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="183">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1050,6 +1095,27 @@
   </si>
   <si>
     <t>Power Pland - Coal</t>
+  </si>
+  <si>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>Low Voltage Electricity</t>
+  </si>
+  <si>
+    <t>\I: Process</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>Transmission and distribution</t>
+  </si>
+  <si>
+    <t>HV_DEMAND</t>
   </si>
 </sst>
 </file>
@@ -3379,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3599,89 +3665,112 @@
       <c r="K11" s="13"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="110" t="s">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="104" t="s">
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D17" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="112"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="101" t="s">
+      <c r="E17" s="112"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D18" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="109"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="102" t="s">
+      <c r="E18" s="109"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D19" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="108"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="E19" s="108"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D20" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="109"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="102" t="s">
+      <c r="E20" s="109"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D21" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="108"/>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="103" t="s">
+      <c r="E21" s="108"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D22" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="107"/>
+      <c r="E22" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3690,10 +3779,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3895,80 +3984,68 @@
     </row>
     <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
-      <c r="C12" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="46"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="34"/>
     </row>
     <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="29"/>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G14" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H14" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="29"/>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>175</v>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>70</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>58</v>
@@ -3979,140 +4056,205 @@
       <c r="I15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="29"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="110" t="s">
+      <c r="C16" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="22" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+    </row>
+    <row r="23" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D23" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="115"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="105" t="s">
+      <c r="E23" s="115"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D24" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="118"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="102" t="s">
+      <c r="E24" s="118"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D25" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="116"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="101" t="s">
+      <c r="E25" s="116"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D26" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="117"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="102" t="s">
+      <c r="E26" s="117"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D27" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="116"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="101" t="s">
+      <c r="E27" s="116"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D28" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="117"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="102" t="s">
+      <c r="E28" s="117"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D29" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="116"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="101" t="s">
+      <c r="E29" s="116"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D30" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="117"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="102" t="s">
+      <c r="E30" s="117"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D31" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="116"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="103" t="s">
+      <c r="E31" s="116"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D32" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="113"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
+      <c r="E32" s="113"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4301,7 +4443,7 @@
   <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B4" sqref="B4:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4478,11 +4620,11 @@
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
-        <f>FI_Process!E13</f>
+        <f>FI_Process!E14</f>
         <v>EX_PP_OIL</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>FI_Process!F13</f>
+        <f>FI_Process!F14</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -4524,11 +4666,11 @@
     <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="74" t="str">
-        <f>FI_Process!E14</f>
+        <f>FI_Process!E15</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
       <c r="D10" s="75" t="str">
-        <f>FI_Process!F14</f>
+        <f>FI_Process!F15</f>
         <v>Power Plant - Natural Gas</v>
       </c>
       <c r="E10" s="75" t="str">
@@ -4570,11 +4712,11 @@
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
       <c r="C11" s="75" t="str">
-        <f>FI_Process!E15</f>
+        <f>FI_Process!E16</f>
         <v>EX_PP_COAL</v>
       </c>
       <c r="D11" s="75" t="str">
-        <f>FI_Process!F15</f>
+        <f>FI_Process!F16</f>
         <v>Power Pland - Coal</v>
       </c>
       <c r="E11" s="75" t="str">
@@ -4660,9 +4802,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4674,23 +4818,23 @@
     <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
       <c r="E4" s="79"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="90" t="s">
         <v>43</v>
@@ -4699,7 +4843,7 @@
       <c r="E5" s="91"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="88" t="s">
         <v>2</v>
@@ -4712,7 +4856,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="92" t="s">
         <v>121</v>
@@ -4725,7 +4869,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="95" t="s">
         <v>52</v>
@@ -4736,29 +4880,186 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="82" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="83">
+        <f>H10*GRID!J9</f>
+        <v>84.713000000000008</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="H9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="34"/>
+      <c r="H10">
+        <f>100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="28"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="29"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="3:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="29"/>
+      <c r="D6" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="3:14" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="29"/>
+      <c r="D7" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="29"/>
+      <c r="D8" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" t="str">
+        <f>FI_Process!F18</f>
+        <v>Transmission and distribution</v>
+      </c>
+      <c r="F9" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="83">
-        <v>100</v>
-      </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="G9" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.84713000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4980,16 +5281,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
